--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>764193.3037845205</v>
+        <v>838896.4450813605</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9613321.913217336</v>
+        <v>9613321.913217338</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.33759325228084</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>155.129259804137</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>106.4061678803925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.80100608808073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>272.5437613321748</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>373.4819133082482</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>99.90187484148926</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.60550320401349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>279.4316181576253</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5995410390623</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.04196664247878</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>195.584066877337</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>78.30632418107855</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274157</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="D16" t="n">
-        <v>105.741039563286</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>64.06074762915294</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>165.9182710483628</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>8.073614202091798</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>192.6186303828515</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.50871797282686</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>185.0548582435383</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23.54872654977478</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>3.911519871443938</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>20.65219546179658</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.4712970941077</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>37.63559668982773</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3244,16 +3244,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>79.80190576914107</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051997</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>170.4308309034741</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>195.7015464764422</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,10 +3506,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2524318260517</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>110.2673680156414</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,13 +3901,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>112.8722262355904</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>60.3724642749169</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>71.49364742074916</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>22.10100382327535</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>2485.424179524335</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.0491016702019</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>281.9325327183818</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>1485.384143294141</v>
       </c>
       <c r="C5" t="n">
-        <v>1920.409918978289</v>
+        <v>1485.384143294141</v>
       </c>
       <c r="D5" t="n">
-        <v>1562.144220371538</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>1176.355967773294</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
         <v>799.1015098861748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286579</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286579</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="X7" t="n">
-        <v>471.4038777286579</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.595463490097</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C8" t="n">
-        <v>1078.595463490097</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D8" t="n">
-        <v>1078.595463490097</v>
+        <v>754.1609496773547</v>
       </c>
       <c r="E8" t="n">
-        <v>692.8072108918532</v>
+        <v>754.1609496773547</v>
       </c>
       <c r="F8" t="n">
-        <v>281.8213061022456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4841,13 +4841,13 @@
         <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.195303554219</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.195303554219</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="9">
@@ -4863,34 +4863,34 @@
         <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614627</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.3791120239298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>262.3791120239298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>262.3791120239298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>262.3791120239298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>262.3791120239298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>93.3793117622622</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>93.3793117622622</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>93.3793117622622</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541695</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541695</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541695</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.0275768541695</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1775.181083557569</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N12" t="n">
-        <v>2105.043711221602</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O12" t="n">
-        <v>2353.797125305564</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1301.356607045441</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1012.227968258999</v>
+        <v>1108.823859882675</v>
       </c>
       <c r="V13" t="n">
-        <v>757.5434800531123</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="W13" t="n">
-        <v>468.1263100161517</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="X13" t="n">
-        <v>468.1263100161517</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>854.1393716767884</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382247</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L15" t="n">
-        <v>650.856489234775</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M15" t="n">
-        <v>1419.224635627236</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N15" t="n">
-        <v>1749.087263291269</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O15" t="n">
-        <v>2418.551024593929</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>372.9624052601988</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="C16" t="n">
-        <v>204.0262223322919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273991</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>554.6108700904385</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>554.6108700904385</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.6108700904385</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5516,13 +5516,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M18" t="n">
-        <v>1604.839867667473</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.466266460128</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O18" t="n">
-        <v>2440.930027762787</v>
+        <v>1992.35927141665</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>462.4595652127116</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C19" t="n">
-        <v>462.4595652127116</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D19" t="n">
-        <v>312.3429258003758</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E19" t="n">
-        <v>312.3429258003758</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
         <v>247.6350999123426</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429513</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>644.1080300429513</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="X19" t="n">
-        <v>644.1080300429513</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y19" t="n">
-        <v>644.1080300429513</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,19 +5817,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
         <v>222.5746515181232</v>
@@ -5841,13 +5841,13 @@
         <v>1156.807040804714</v>
       </c>
       <c r="N21" t="n">
-        <v>1961.218619068864</v>
+        <v>1501.327696442332</v>
       </c>
       <c r="O21" t="n">
-        <v>2209.972033152826</v>
+        <v>2170.791457744991</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.1598612984388</v>
+        <v>514.936581693766</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>514.936581693766</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>364.8199422814303</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>216.9068486990371</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9068486990371</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9068486990371</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5941,19 +5941,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1080.566582233417</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1080.566582233417</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W22" t="n">
-        <v>791.1494121964562</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X22" t="n">
-        <v>563.1598612984388</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.1598612984388</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028479</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823777</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452863</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>2896.654173359327</v>
+        <v>741.6306675263488</v>
       </c>
       <c r="M24" t="n">
-        <v>3203.974306639288</v>
+        <v>1509.99881391881</v>
       </c>
       <c r="N24" t="n">
-        <v>3899.2354284722</v>
+        <v>1854.519469556428</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.3055067228584</v>
+        <v>967.1285778917505</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228584</v>
+        <v>798.1923949638436</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>648.0757555515079</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>500.1626619691148</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>500.1626619691148</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>331.9873402889353</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>181.5693318368786</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1112.072161237557</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>822.9435224511154</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V25" t="n">
-        <v>822.9435224511154</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W25" t="n">
-        <v>822.9435224511154</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X25" t="n">
-        <v>594.9539715530981</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="Y25" t="n">
-        <v>594.9539715530981</v>
+        <v>967.1285778917505</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6215,25 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6309,19 +6309,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1079.287811648746</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M27" t="n">
-        <v>1847.655958041207</v>
+        <v>994.7638819868627</v>
       </c>
       <c r="N27" t="n">
-        <v>2192.176613678825</v>
+        <v>1799.175460251013</v>
       </c>
       <c r="O27" t="n">
-        <v>2440.930027762787</v>
+        <v>2078.71552546971</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>289.9398668627127</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C28" t="n">
-        <v>121.0036839348058</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D28" t="n">
-        <v>121.0036839348058</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E28" t="n">
-        <v>121.0036839348058</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>121.0036839348058</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6427,7 +6427,7 @@
         <v>692.3809108364826</v>
       </c>
       <c r="Y28" t="n">
-        <v>471.5883316929525</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>2786.879505108312</v>
       </c>
       <c r="L30" t="n">
-        <v>935.6475510705676</v>
+        <v>3381.292803308294</v>
       </c>
       <c r="M30" t="n">
-        <v>1704.015697463029</v>
+        <v>4149.660949700755</v>
       </c>
       <c r="N30" t="n">
-        <v>2033.878325127062</v>
+        <v>4494.181605338373</v>
       </c>
       <c r="O30" t="n">
-        <v>2033.878325127062</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.5611725871966</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="C31" t="n">
-        <v>562.7003690904323</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="D31" t="n">
-        <v>562.7003690904323</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609664</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W31" t="n">
-        <v>986.0022165609664</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0022165609664</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="Y31" t="n">
-        <v>765.2096374174363</v>
+        <v>653.9727323706986</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6734,7 +6734,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>664.5909712050459</v>
       </c>
       <c r="L33" t="n">
-        <v>738.0704661731477</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.405785702849</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N33" t="n">
-        <v>1862.817363967</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>303.4081673726145</v>
+        <v>3796.266898524761</v>
       </c>
       <c r="C34" t="n">
-        <v>303.4081673726145</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="D34" t="n">
-        <v>303.4081673726145</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E34" t="n">
-        <v>303.4081673726145</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="W34" t="n">
-        <v>531.3977182706318</v>
+        <v>4058.523348980396</v>
       </c>
       <c r="X34" t="n">
-        <v>303.4081673726145</v>
+        <v>4058.523348980396</v>
       </c>
       <c r="Y34" t="n">
-        <v>303.4081673726145</v>
+        <v>3977.915363355001</v>
       </c>
     </row>
     <row r="35">
@@ -6932,34 +6932,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,13 +6971,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>506.3718661188911</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>1120.26893587578</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1440.604255405482</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N36" t="n">
-        <v>1785.124911043099</v>
+        <v>2232.152830377785</v>
       </c>
       <c r="O36" t="n">
-        <v>2033.878325127062</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>3907.603135363462</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>3907.603135363462</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>3757.486495951126</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U37" t="n">
-        <v>991.90339746128</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V37" t="n">
-        <v>737.2189092553931</v>
+        <v>4128.395714506993</v>
       </c>
       <c r="W37" t="n">
-        <v>447.8017392184324</v>
+        <v>4128.395714506993</v>
       </c>
       <c r="X37" t="n">
-        <v>447.8017392184324</v>
+        <v>4128.395714506993</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>3907.603135363462</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,58 +7166,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1229.547424576682</v>
+        <v>1222.010242114294</v>
       </c>
       <c r="N39" t="n">
-        <v>1559.410052240715</v>
+        <v>2026.421820378444</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2275.175234462406</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.358329063101</v>
+        <v>465.000566144016</v>
       </c>
       <c r="C40" t="n">
-        <v>563.4221461351941</v>
+        <v>465.000566144016</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7357,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1276.459987305949</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1276.459987305949</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>1276.459987305949</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>1021.775499100062</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W40" t="n">
-        <v>732.358329063101</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="X40" t="n">
-        <v>732.358329063101</v>
+        <v>646.6490309742558</v>
       </c>
       <c r="Y40" t="n">
-        <v>732.358329063101</v>
+        <v>646.6490309742558</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,13 +7400,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181233</v>
+        <v>595.9351482700438</v>
       </c>
       <c r="L42" t="n">
-        <v>836.471721275012</v>
+        <v>1209.832218026932</v>
       </c>
       <c r="M42" t="n">
-        <v>1552.546540725493</v>
+        <v>1530.167537556634</v>
       </c>
       <c r="N42" t="n">
-        <v>1897.067196363111</v>
+        <v>1874.688193194252</v>
       </c>
       <c r="O42" t="n">
-        <v>2145.820610447073</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>245.130185042679</v>
+        <v>3867.970784729898</v>
       </c>
       <c r="C43" t="n">
-        <v>245.130185042679</v>
+        <v>3867.970784729898</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>1238.013973327074</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U43" t="n">
-        <v>1238.013973327074</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V43" t="n">
-        <v>983.329485121187</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W43" t="n">
-        <v>693.9123150842264</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X43" t="n">
-        <v>465.9227641862091</v>
+        <v>4088.763363873428</v>
       </c>
       <c r="Y43" t="n">
-        <v>245.130185042679</v>
+        <v>3867.970784729898</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,16 +7640,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K45" t="n">
-        <v>431.352152914614</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L45" t="n">
-        <v>661.3152587829632</v>
+        <v>2801.004654415706</v>
       </c>
       <c r="M45" t="n">
-        <v>661.3152587829632</v>
+        <v>3569.372800808167</v>
       </c>
       <c r="N45" t="n">
-        <v>1465.726837047114</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O45" t="n">
-        <v>2135.190598349773</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>616.8574922980929</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>466.7408528857571</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>466.7408528857571</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>319.8509053878468</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>874.9271131227918</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>620.2426249169049</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W46" t="n">
-        <v>620.2426249169049</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X46" t="n">
-        <v>597.9183786307682</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>785.7936752259998</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,25 +9009,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,19 +9252,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>299.6512058132873</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>132.406399860167</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>140.5903362906799</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>275.0413011128904</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>369.0893880493726</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10200,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>254.5282761518564</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,10 +10446,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,16 +10902,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,13 +11154,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504506</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>186.9347244972407</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>25.96349418105225</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>207.9310282174988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.842169091310353</v>
       </c>
       <c r="D16" t="n">
-        <v>42.87443345492638</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>81.3603003937783</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>120.6047272882282</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>140.8402141654443</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>93.61872201572581</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>26.91052749144511</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>36.49270281485093</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>142.9448419136028</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>214.6731334806508</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>146.5946256368313</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>10.05170124248326</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>107.7854513331035</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>138.7827475829537</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,25 +25360,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>115.8065214951033</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>56.43609684738584</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>41.36304119216065</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25597,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>87.65344196796183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25789,13 +25789,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>35.74324678262198</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25834,10 +25834,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>161.1750967834724</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>94.99992104262843</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>203.6086515657618</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049992</v>
-      </c>
       <c r="E2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="F2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="M2" t="n">
-        <v>547440.6836327922</v>
-      </c>
       <c r="N2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="O2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759088</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759185</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758319</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26485,22 +26485,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535739</v>
+        <v>-237156.8575535743</v>
       </c>
       <c r="C6" t="n">
+        <v>352811.0216609705</v>
+      </c>
+      <c r="D6" t="n">
         <v>352811.0216609702</v>
       </c>
-      <c r="D6" t="n">
-        <v>352811.0216609708</v>
-      </c>
       <c r="E6" t="n">
-        <v>-70494.47248339654</v>
+        <v>-70494.47248339647</v>
       </c>
       <c r="F6" t="n">
+        <v>454665.5639934996</v>
+      </c>
+      <c r="G6" t="n">
+        <v>454665.5639935</v>
+      </c>
+      <c r="H6" t="n">
         <v>454665.5639934995</v>
-      </c>
-      <c r="G6" t="n">
-        <v>454665.5639934996</v>
-      </c>
-      <c r="H6" t="n">
-        <v>454665.5639934996</v>
       </c>
       <c r="I6" t="n">
         <v>454665.5639934995</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.3448009066</v>
+        <v>278242.3448009067</v>
       </c>
       <c r="K6" t="n">
-        <v>454665.5639934995</v>
+        <v>454665.5639934998</v>
       </c>
       <c r="L6" t="n">
-        <v>454665.5639934998</v>
+        <v>454665.5639934997</v>
       </c>
       <c r="M6" t="n">
-        <v>319864.5487596625</v>
+        <v>319864.5487596627</v>
       </c>
       <c r="N6" t="n">
-        <v>454665.5639934997</v>
+        <v>454665.5639935</v>
       </c>
       <c r="O6" t="n">
+        <v>454665.5639935</v>
+      </c>
+      <c r="P6" t="n">
         <v>454665.5639934994</v>
-      </c>
-      <c r="P6" t="n">
-        <v>454665.5639934996</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.3962484111997</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>194.111708913276</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>42.20930513781983</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>171.2340993700035</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>82.13928028850813</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>33.3941324334632</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>125.8077805475479</v>
       </c>
       <c r="Y7" t="n">
-        <v>118.9791501480813</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>127.4444275840862</v>
       </c>
       <c r="G8" t="n">
-        <v>188.1846289817327</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>6.157992546058217</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>85.19271039829698</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,31 +31610,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576417</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,22 +31847,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>336.2033676426062</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>160.5761976634612</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32008,7 +32008,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O14" t="n">
         <v>562.4526372540886</v>
@@ -32075,13 +32075,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>86.74629983955168</v>
       </c>
       <c r="L15" t="n">
-        <v>200.3219513619219</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32096,7 +32096,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32312,31 +32312,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -32561,19 +32561,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>184.8542096571445</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>176.6627710335716</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>67.78291411854849</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>319.9884762946797</v>
+        <v>368.1315074056893</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33509,25 +33509,25 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>332.6861108200251</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>286.6638531320888</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>242.8642159181018</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,16 +33980,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>113.9884239094546</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>79.41605135672484</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,16 +34208,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>209.1306006056143</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>399.7368686068475</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -34226,19 +34226,19 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,16 +34375,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34448,22 +34448,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>238.9327166150666</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,22 +35495,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>659.7743974705878</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>345.0645588890682</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>213.3700978777713</v>
       </c>
       <c r="L15" t="n">
-        <v>432.6079168855069</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>168.3094937299541</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>339.4998147916916</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>347.6837512222045</v>
+        <v>369.3425708827514</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>524.2990060689148</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>702.2839614473854</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>408.9487365571566</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>252.2712753441554</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>552.2744418182647</v>
+        <v>600.4174729292743</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>405.1037147397956</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37157,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>583.9521856523102</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>413.2876511703084</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>100.2679714736573</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>437.5594537374362</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>263.9044125823318</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>335.7543986438339</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>723.3078984348291</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
         <v>348.0006622602202</v>
@@ -37874,7 +37874,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.51016308518</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>471.2186821386516</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2417461.506107025</v>
+        <v>2492991.175771829</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>838896.4450813605</v>
+        <v>383830.7893650502</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>155.129259804137</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>355.5613318636997</v>
       </c>
     </row>
     <row r="3">
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>106.4061678803925</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>12.39397944700498</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>272.5437613321748</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>146.4340874029168</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.24586684424294</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>99.90187484148926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>279.4316181576253</v>
+        <v>126.2536579562773</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>59.71215406761492</v>
       </c>
       <c r="W10" t="n">
-        <v>201.330287938294</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>4.161189105172538</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>78.30632418107855</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274157</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>161.4046520073175</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.3076917649441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2019,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.932713005353091</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9182710483628</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>8.073614202091798</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>149.6304575762307</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.50871797282686</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>20.34834674255649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>170.5809693952294</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.911519871443938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>214.3483978412673</v>
       </c>
       <c r="W31" t="n">
-        <v>276.4712970941077</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>65.65604651145522</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.80190576914107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051997</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>44.95986774157942</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>195.7015464764422</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>107.2524318260517</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>129.4106056624395</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>112.8722262355904</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>45.92456191709444</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>71.49364742074916</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>54.76523371349974</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2485.424179524335</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>2111.958421263255</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.819089287443</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4416,22 +4418,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.1723320447965</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1723320447965</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.8207968750362</v>
+        <v>488.3016257164451</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.384143294141</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.384143294141</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1871.983983358263</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="Y5" t="n">
-        <v>1871.983983358263</v>
+        <v>2494.20718194981</v>
       </c>
     </row>
     <row r="6">
@@ -4626,34 +4628,34 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>707.6786136566941</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>707.6786136566941</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>707.6786136566941</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>707.6786136566941</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087374</v>
+        <v>707.6786136566941</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8539665087374</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1112.426648284105</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="C8" t="n">
-        <v>1112.426648284105</v>
+        <v>1138.689965955915</v>
       </c>
       <c r="D8" t="n">
-        <v>754.1609496773547</v>
+        <v>1138.689965955915</v>
       </c>
       <c r="E8" t="n">
-        <v>754.1609496773547</v>
+        <v>752.901713357671</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="X8" t="n">
-        <v>1112.426648284105</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y8" t="n">
-        <v>1112.426648284105</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036422</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614627</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5036,34 +5038,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5106,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>264.0657286834808</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>566.6947980556461</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.660951743751</v>
+        <v>887.0301175853479</v>
       </c>
       <c r="N12" t="n">
-        <v>1953.181607381369</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.935021465331</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
         <v>2543.548934765509</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>672.4909068465487</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>503.5547239186418</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186418</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1383.637945801368</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1159.852530590873</v>
       </c>
       <c r="U13" t="n">
-        <v>1108.823859882675</v>
+        <v>870.7238918044317</v>
       </c>
       <c r="V13" t="n">
-        <v>854.1393716767884</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="W13" t="n">
-        <v>854.1393716767884</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="X13" t="n">
-        <v>854.1393716767884</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="Y13" t="n">
-        <v>854.1393716767884</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="14">
@@ -5255,55 +5257,55 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805478</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382247</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5345,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>474.7746905116418</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>721.5398184181058</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>1028.859951698067</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.2520934878793</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>982.5598522222051</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>727.8753640163183</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>727.8753640163183</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>727.8753640163183</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>378.2578394346339</v>
       </c>
       <c r="L18" t="n">
-        <v>618.8589595388348</v>
+        <v>992.1549091915225</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1942790685366</v>
+        <v>1760.523055583984</v>
       </c>
       <c r="N18" t="n">
-        <v>1743.605857332687</v>
+        <v>2105.043711221602</v>
       </c>
       <c r="O18" t="n">
-        <v>1992.35927141665</v>
+        <v>2353.797125305564</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.7235151749151</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C19" t="n">
-        <v>563.7235151749151</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D19" t="n">
-        <v>563.7235151749151</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1496.96403519896</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1496.96403519896</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1207.835396412518</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>953.1509082066311</v>
       </c>
       <c r="W19" t="n">
-        <v>563.7235151749151</v>
+        <v>953.1509082066311</v>
       </c>
       <c r="X19" t="n">
-        <v>563.7235151749151</v>
+        <v>953.1509082066311</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.7235151749151</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5734,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5838,16 +5840,16 @@
         <v>836.4717212750119</v>
       </c>
       <c r="M21" t="n">
-        <v>1156.807040804714</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N21" t="n">
-        <v>1501.327696442332</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O21" t="n">
-        <v>2170.791457744991</v>
+        <v>2198.113937389053</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>514.936581693766</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>514.936581693766</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>364.8199422814303</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>216.9068486990371</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>216.9068486990371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>216.9068486990371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240057</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X22" t="n">
-        <v>696.5850465240057</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="Y22" t="n">
-        <v>696.5850465240057</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028479</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823777</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>741.6306675263488</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M24" t="n">
-        <v>1509.99881391881</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N24" t="n">
-        <v>1854.519469556428</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2337.112659897353</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2519.756137510704</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>967.1285778917505</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="C25" t="n">
-        <v>798.1923949638436</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D25" t="n">
-        <v>648.0757555515079</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E25" t="n">
-        <v>500.1626619691148</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>500.1626619691148</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>331.9873402889353</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>181.5693318368786</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.921157035281</v>
+        <v>1367.287281521186</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.921157035281</v>
+        <v>1078.158642734744</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.921157035281</v>
+        <v>1078.158642734744</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.921157035281</v>
+        <v>1078.158642734744</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.921157035281</v>
+        <v>1078.158642734744</v>
       </c>
       <c r="Y25" t="n">
-        <v>967.1285778917505</v>
+        <v>857.3660635912139</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>674.4285624571609</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M27" t="n">
-        <v>994.7638819868627</v>
+        <v>1080.303607295999</v>
       </c>
       <c r="N27" t="n">
-        <v>1799.175460251013</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="O27" t="n">
-        <v>2078.71552546971</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.7814158330672</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="C28" t="n">
-        <v>506.7814158330672</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4688.550563524161</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>4399.421924737719</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>4144.737436531832</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>3855.320266494871</v>
       </c>
       <c r="X28" t="n">
-        <v>692.3809108364826</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="Y28" t="n">
-        <v>688.4298806633069</v>
+        <v>3627.330715596854</v>
       </c>
     </row>
     <row r="29">
@@ -6440,67 +6442,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>2786.879505108312</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>3381.292803308294</v>
+        <v>1192.536730748768</v>
       </c>
       <c r="M30" t="n">
-        <v>4149.660949700755</v>
+        <v>1960.904877141229</v>
       </c>
       <c r="N30" t="n">
-        <v>4494.181605338373</v>
+        <v>2305.425532778847</v>
       </c>
       <c r="O30" t="n">
-        <v>4773.72167055707</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.72167055707</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.9727323706986</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="C31" t="n">
-        <v>653.9727323706986</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D31" t="n">
-        <v>653.9727323706986</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883055</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F31" t="n">
         <v>359.1696912903951</v>
@@ -6616,7 +6618,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>933.2366688293934</v>
+        <v>1058.617322174411</v>
       </c>
       <c r="W31" t="n">
-        <v>653.9727323706986</v>
+        <v>1058.617322174411</v>
       </c>
       <c r="X31" t="n">
-        <v>653.9727323706986</v>
+        <v>1058.617322174411</v>
       </c>
       <c r="Y31" t="n">
-        <v>653.9727323706986</v>
+        <v>837.8247430308809</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6695,19 +6697,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6716,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>664.5909712050459</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>894.5540770733951</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="M33" t="n">
-        <v>1214.889396603097</v>
+        <v>994.7638819868625</v>
       </c>
       <c r="N33" t="n">
-        <v>1559.410052240715</v>
+        <v>1799.175460251013</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3796.266898524761</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="C34" t="n">
-        <v>3627.330715596854</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D34" t="n">
-        <v>3627.330715596854</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596854</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596854</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1321.521928219268</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>1321.521928219268</v>
       </c>
       <c r="V34" t="n">
-        <v>4347.940519017357</v>
+        <v>1066.837440013381</v>
       </c>
       <c r="W34" t="n">
-        <v>4058.523348980396</v>
+        <v>1066.837440013381</v>
       </c>
       <c r="X34" t="n">
-        <v>4058.523348980396</v>
+        <v>838.8478891153636</v>
       </c>
       <c r="Y34" t="n">
-        <v>3977.915363355001</v>
+        <v>838.8478891153636</v>
       </c>
     </row>
     <row r="35">
@@ -6932,34 +6934,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6977,7 +6979,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>753.3917431982967</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113634</v>
+        <v>1521.759889590758</v>
       </c>
       <c r="N36" t="n">
-        <v>2232.152830377785</v>
+        <v>1866.280545228376</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3907.603135363462</v>
+        <v>717.1440534185984</v>
       </c>
       <c r="C37" t="n">
-        <v>3907.603135363462</v>
+        <v>717.1440534185984</v>
       </c>
       <c r="D37" t="n">
-        <v>3757.486495951126</v>
+        <v>717.1440534185984</v>
       </c>
       <c r="E37" t="n">
-        <v>3609.573402368733</v>
+        <v>569.2309598362053</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368733</v>
+        <v>422.3410123382949</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>254.1656906581156</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491671</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>4326.074044281177</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V37" t="n">
-        <v>4128.395714506993</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W37" t="n">
-        <v>4128.395714506993</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X37" t="n">
-        <v>4128.395714506993</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="Y37" t="n">
-        <v>3907.603135363462</v>
+        <v>898.7925182488382</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M39" t="n">
-        <v>1222.010242114294</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N39" t="n">
-        <v>2026.421820378444</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O39" t="n">
-        <v>2275.175234462406</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>465.000566144016</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>465.000566144016</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>356.6647764207315</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>874.6385818722731</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X40" t="n">
-        <v>646.6490309742558</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y40" t="n">
-        <v>646.6490309742558</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7397,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,40 +7423,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>595.9351482700438</v>
+        <v>550.0023305088838</v>
       </c>
       <c r="L42" t="n">
-        <v>1209.832218026932</v>
+        <v>550.0023305088838</v>
       </c>
       <c r="M42" t="n">
-        <v>1530.167537556634</v>
+        <v>1318.370476901345</v>
       </c>
       <c r="N42" t="n">
-        <v>1874.688193194252</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3867.970784729898</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C43" t="n">
-        <v>3867.970784729898</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D43" t="n">
-        <v>3753.958434996978</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E43" t="n">
-        <v>3606.045341414585</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>4860.854573014292</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V43" t="n">
-        <v>4606.170084808406</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W43" t="n">
-        <v>4316.752914771445</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="X43" t="n">
-        <v>4088.763363873428</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="Y43" t="n">
-        <v>3867.970784729898</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7637,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2334.498159098441</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>2801.004654415706</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M45" t="n">
-        <v>3569.372800808167</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N45" t="n">
-        <v>3899.2354284722</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O45" t="n">
-        <v>4568.699189774859</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>785.7936752259998</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C46" t="n">
-        <v>616.8574922980929</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="D46" t="n">
-        <v>466.7408528857571</v>
+        <v>152.5355093527099</v>
       </c>
       <c r="E46" t="n">
-        <v>466.7408528857571</v>
+        <v>152.5355093527099</v>
       </c>
       <c r="F46" t="n">
-        <v>319.8509053878468</v>
+        <v>152.5355093527099</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>152.5355093527099</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>152.5355093527099</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>785.7936752259998</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X46" t="n">
-        <v>785.7936752259998</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y46" t="n">
-        <v>785.7936752259998</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9009,25 +9011,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>132.406399860167</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9497,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>222.6637244493692</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>275.0413011128904</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,10 +9737,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>319.8228611649365</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>274.083879176912</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>254.5282761518564</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>118.9199612336839</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>49.57660335928267</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,10 +10922,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>138.7821744385614</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,13 +11156,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,19 +11387,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>409.7902238082495</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.7596208784307</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>207.9310282174988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>5.842169091310353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.92966063363323</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>195.9880969782502</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>120.6047272882282</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>140.8402141654443</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>76.07919781280648</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>26.91052749144511</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>201.1992143158328</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>50.96659166315982</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.6731334806508</v>
+        <v>218.5846533520993</v>
       </c>
     </row>
     <row r="29">
@@ -24740,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>37.78924548256069</v>
       </c>
       <c r="W31" t="n">
-        <v>10.05170124248326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>155.891514546934</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.7827475829537</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>103.9539606259567</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>56.43609684738584</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>41.36304119216065</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>157.1123926741515</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>35.74324678262198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>240.5984364194966</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>94.99992104262843</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>55.65401175077226</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.238904999</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="H2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327922</v>
-      </c>
       <c r="K2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="L2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327924</v>
-      </c>
       <c r="O2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327916</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759088</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
@@ -26433,31 +26435,31 @@
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758319</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535743</v>
+        <v>-237156.8575535745</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609705</v>
+        <v>352811.0216609702</v>
       </c>
       <c r="D6" t="n">
         <v>352811.0216609702</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.47248339647</v>
+        <v>-70494.4724833963</v>
       </c>
       <c r="F6" t="n">
         <v>454665.5639934996</v>
       </c>
       <c r="G6" t="n">
-        <v>454665.5639935</v>
+        <v>454665.5639934996</v>
       </c>
       <c r="H6" t="n">
         <v>454665.5639934995</v>
       </c>
       <c r="I6" t="n">
-        <v>454665.5639934995</v>
+        <v>454665.5639934996</v>
       </c>
       <c r="J6" t="n">
         <v>278242.3448009067</v>
       </c>
       <c r="K6" t="n">
+        <v>454665.5639934995</v>
+      </c>
+      <c r="L6" t="n">
+        <v>454665.5639934995</v>
+      </c>
+      <c r="M6" t="n">
+        <v>319864.5487596621</v>
+      </c>
+      <c r="N6" t="n">
         <v>454665.5639934998</v>
       </c>
-      <c r="L6" t="n">
-        <v>454665.5639934997</v>
-      </c>
-      <c r="M6" t="n">
-        <v>319864.5487596627</v>
-      </c>
-      <c r="N6" t="n">
-        <v>454665.5639935</v>
-      </c>
       <c r="O6" t="n">
-        <v>454665.5639935</v>
+        <v>454665.5639934991</v>
       </c>
       <c r="P6" t="n">
-        <v>454665.5639934994</v>
+        <v>454665.5639934996</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>194.111708913276</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>30.67660679235388</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>42.20930513781983</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>239.743663876823</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>82.13928028850813</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>223.2970132755522</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>126.4193251359149</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>125.8077805475479</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27855,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>127.4444275840862</v>
+        <v>280.6223877854342</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>192.4254892562131</v>
       </c>
       <c r="W10" t="n">
-        <v>85.19271039829698</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28287,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-2.584460300934504e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -29341,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29499,7 +29501,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
     </row>
     <row r="29">
@@ -29749,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576417</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31841,22 +31843,22 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>73.39996313516781</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>160.5761976634612</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -32008,7 +32010,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
         <v>562.4526372540886</v>
@@ -32078,25 +32080,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>86.74629983955168</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>459.7304611826281</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32312,25 +32314,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>157.2557453702128</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -32558,22 +32560,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.8542096571445</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>34.77051449707533</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33035,25 +33037,25 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>67.78291411854849</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>368.1315074056893</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33509,25 +33511,25 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>396.9708620482947</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>242.8642159181018</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,10 +33973,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33983,25 +33985,25 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>79.41605135672484</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>209.1306006056143</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,25 +34377,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>238.9327166150666</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>305.6859286587528</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>345.0645588890682</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35583,7 +35585,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006117968</v>
       </c>
       <c r="Q13" t="n">
         <v>39.22569997187475</v>
@@ -35656,7 +35658,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35726,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>213.3700978777713</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>807.7311234428483</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>283.8795434084324</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>339.4998147916916</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>369.3425708827514</v>
+        <v>429.7571393808939</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>524.2990060689148</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.8660281469029</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>177.6888272429182</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>252.2712753441554</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>600.4174729292743</v>
+        <v>523.3415841329363</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>405.1037147397956</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>648.2369368805798</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>368.1776661897081</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>100.2679714736573</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
@@ -37631,16 +37633,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>382.7711767572955</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>263.9044125823318</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7543986438339</v>
+        <v>289.3576130265006</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>471.2186821386516</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>742.9847972062623</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2492991.175771829</v>
+        <v>2485974.160880118</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383830.7893650502</v>
+        <v>609926.7378421911</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9613321.913217338</v>
+        <v>9613321.913217336</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>122.7769566578278</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>355.5613318636997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -794,13 +794,13 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>12.39397944700498</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>226.9736586744964</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>71.64540509163452</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>146.4340874029168</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>20.24586684424294</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>126.2536579562773</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>59.71215406761492</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>4.161189105172538</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.3076917649441</v>
+        <v>93.87916681139909</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>1.932713005353091</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="X22" t="n">
-        <v>149.6304575762307</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>20.34834674255649</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>170.5809693952294</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>214.3483978412673</v>
+        <v>221.2306574774764</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>65.65604651145522</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>44.95986774157942</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>129.4106056624395</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>45.92456191709444</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>124.2415152959845</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>54.76523371349974</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1129.234822142136</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2573.131963081023</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2242.069075737452</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1889.300420467338</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1515.834662206258</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>1515.834662206258</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4418,34 +4418,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.3016257164451</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>488.3016257164451</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>488.3016257164451</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>488.3016257164451</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X4" t="n">
-        <v>488.3016257164451</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y4" t="n">
-        <v>488.3016257164451</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>140.2354819339296</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2494.20718194981</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>2494.20718194981</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>707.6786136566941</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>707.6786136566941</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>707.6786136566941</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>707.6786136566941</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>707.6786136566941</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>418.2614436197335</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1507.652482896327</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1138.689965955915</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.689965955915</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>752.901713357671</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157407</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1507.652482896327</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1507.652482896327</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,40 +4892,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5038,34 +5038,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>264.0657286834808</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L12" t="n">
-        <v>566.6947980556461</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M12" t="n">
-        <v>887.0301175853479</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N12" t="n">
-        <v>1691.441695849499</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O12" t="n">
-        <v>2360.905457152158</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1383.637945801368</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1159.852530590873</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>870.7238918044317</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>616.0394035985448</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>616.0394035985448</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>616.0394035985448</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>1002.792923427374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>1323.128242957076</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N15" t="n">
-        <v>2122.782055165496</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5466,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>982.5598522222051</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>727.8753640163183</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>727.8753640163183</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>727.8753640163183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5597,22 +5597,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>378.2578394346339</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>992.1549091915225</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>1760.523055583984</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N18" t="n">
-        <v>2105.043711221602</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O18" t="n">
-        <v>2353.797125305564</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.358329063101</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>563.4221461351941</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1496.96403519896</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1496.96403519896</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1207.835396412518</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>953.1509082066311</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>953.1509082066311</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X19" t="n">
-        <v>953.1509082066311</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y19" t="n">
-        <v>732.358329063101</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5834,19 +5834,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>836.4717212750119</v>
+        <v>841.2209420433994</v>
       </c>
       <c r="M21" t="n">
-        <v>1604.839867667473</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N21" t="n">
-        <v>1949.360523305091</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
-        <v>2198.113937389053</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.1367719529251</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
         <v>542.1367719529251</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>874.9271131227918</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X22" t="n">
-        <v>723.7852367831648</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y22" t="n">
-        <v>723.7852367831648</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,22 +5977,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1002.792923427374</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1323.128242957076</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N24" t="n">
-        <v>1667.648898594694</v>
+        <v>2092.7372104782</v>
       </c>
       <c r="O24" t="n">
-        <v>2337.112659897353</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P24" t="n">
-        <v>2519.756137510704</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.7175987609742</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>506.7814158330673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1367.287281521186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1078.158642734744</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1078.158642734744</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1078.158642734744</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>1078.158642734744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>857.3660635912139</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1080.303607295999</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1884.71518556015</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3627.330715596854</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>3627.330715596854</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>3627.330715596854</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>3627.330715596854</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596854</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4688.550563524161</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>4399.421924737719</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>4144.737436531832</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W28" t="n">
-        <v>3855.320266494871</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X28" t="n">
-        <v>3627.330715596854</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y28" t="n">
-        <v>3627.330715596854</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6502,13 +6502,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
         <v>125.4002551675024</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L30" t="n">
-        <v>1192.536730748768</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M30" t="n">
-        <v>1960.904877141229</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N30" t="n">
-        <v>2305.425532778847</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>2554.178946862809</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.1762782006411</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C31" t="n">
-        <v>656.1762782006411</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D31" t="n">
-        <v>506.0596387883054</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028583</v>
@@ -6654,19 +6654,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1058.617322174411</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W31" t="n">
-        <v>1058.617322174411</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X31" t="n">
-        <v>1058.617322174411</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="Y31" t="n">
-        <v>837.8247430308809</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="32">
@@ -6679,10 +6679,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,43 +6694,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>674.4285624571608</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>994.7638819868625</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1799.175460251013</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>657.1994242851239</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C34" t="n">
-        <v>657.1994242851239</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1321.521928219268</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1321.521928219268</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1066.837440013381</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W34" t="n">
-        <v>1066.837440013381</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X34" t="n">
-        <v>838.8478891153636</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y34" t="n">
-        <v>838.8478891153636</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>753.3917431982967</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1521.759889590758</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.280545228376</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>717.1440534185984</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>717.1440534185984</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>717.1440534185984</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>569.2309598362053</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>422.3410123382949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>254.1656906581156</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>898.7925182488382</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>898.7925182488382</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>898.7925182488382</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>898.7925182488382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>898.7925182488382</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7256,22 +7256,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1002.792923427374</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1323.128242957076</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.071707946799</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1113.513998854602</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7423,40 +7423,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>550.0023305088838</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>550.0023305088838</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1318.370476901345</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>376.9270045185177</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C43" t="n">
-        <v>376.9270045185177</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185177</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>898.7925182488382</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>644.1080300429513</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>597.7195836620479</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X43" t="n">
-        <v>597.7195836620479</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y43" t="n">
-        <v>376.9270045185177</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1387.227105931296</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>302.6521487650456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>152.5355093527099</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>152.5355093527099</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>152.5355093527099</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5355093527099</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5355093527099</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617344999</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>222.6637244493692</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9725,22 +9725,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>369.9668156413373</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>319.8228611649365</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>274.083879176912</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10208,13 +10208,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,10 +10442,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>118.9199612336839</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,19 +10913,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>49.57660335928267</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>138.7821744385614</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11153,16 +11153,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>409.7902238082495</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7596208784307</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.92966063363323</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.9880969782502</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="X22" t="n">
-        <v>76.07919781280648</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>201.1992143158328</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>33.64651101484523</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>50.96659166315982</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>37.78924548256069</v>
+        <v>30.90698584635163</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>155.891514546934</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>103.9539606259567</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>157.1123926741515</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>240.5984364194966</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>101.4681400930526</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>55.65401175077226</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="J2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="K2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327926</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="L2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327917</v>
-      </c>
       <c r="N2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327916</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
@@ -26444,10 +26444,10 @@
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905759314</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535745</v>
+        <v>-237156.8575535743</v>
       </c>
       <c r="C6" t="n">
         <v>352811.0216609702</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609702</v>
+        <v>352811.0216609704</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.4724833963</v>
+        <v>-71469.06374311807</v>
       </c>
       <c r="F6" t="n">
-        <v>454665.5639934996</v>
+        <v>453690.9727337781</v>
       </c>
       <c r="G6" t="n">
-        <v>454665.5639934996</v>
+        <v>453690.9727337777</v>
       </c>
       <c r="H6" t="n">
-        <v>454665.5639934995</v>
+        <v>453690.9727337781</v>
       </c>
       <c r="I6" t="n">
-        <v>454665.5639934996</v>
+        <v>453690.9727337777</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.3448009067</v>
+        <v>277267.7535411848</v>
       </c>
       <c r="K6" t="n">
-        <v>454665.5639934995</v>
+        <v>453690.9727337779</v>
       </c>
       <c r="L6" t="n">
-        <v>454665.5639934995</v>
+        <v>453690.9727337784</v>
       </c>
       <c r="M6" t="n">
-        <v>319864.5487596621</v>
+        <v>318889.9574999406</v>
       </c>
       <c r="N6" t="n">
-        <v>454665.5639934998</v>
+        <v>453690.9727337781</v>
       </c>
       <c r="O6" t="n">
-        <v>454665.5639934991</v>
+        <v>453690.9727337777</v>
       </c>
       <c r="P6" t="n">
-        <v>454665.5639934996</v>
+        <v>453690.9727337777</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26749,37 +26749,37 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>128.4472108504615</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>30.67660679235388</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27590,16 +27590,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>239.743663876823</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>59.54933966209461</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>335.2306406500769</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>223.2970132755522</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>126.4193251359149</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>280.6223877854342</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>192.4254892562131</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.584460300934504e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29501,7 +29501,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -31138,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31612,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31621,7 +31621,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31840,22 +31840,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L12" t="n">
-        <v>73.39996313516781</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31864,7 +31864,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,37 +32077,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>459.7304611826281</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,25 +32314,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>157.2557453702128</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32554,22 +32554,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>104.1923998689412</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,16 +32727,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,10 +32788,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
@@ -32800,25 +32800,25 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.77051449707533</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,22 +33499,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>396.9708620482947</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,25 +33903,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,22 +33973,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,19 +34210,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,19 +34447,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L12" t="n">
-        <v>305.6859286587528</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006117968</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
         <v>39.22569997187475</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N15" t="n">
-        <v>807.7311234428483</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>283.8795434084324</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>336.4783653925262</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>429.7571393808939</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>227.3705711968929</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.8660281469029</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>177.6888272429182</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>523.3415841329363</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>648.2369368805798</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>368.1776661897081</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>382.7711767572955</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>289.3576130265006</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>742.9847972062623</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2485974.160880118</v>
+        <v>2490913.423729149</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>609926.7378421911</v>
+        <v>635171.8984947256</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9613321.913217336</v>
+        <v>9613321.91321734</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>17.09300973225717</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>122.7769566578278</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>226.9736586744964</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>374.4519878923196</v>
       </c>
       <c r="F5" t="n">
-        <v>71.64540509163452</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>153.7030503653499</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>38.39834678541102</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>33.3514698018592</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>93.87916681139909</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>173.8065142497636</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>67.08991894886701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>146.1854691670921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>155.8385935972304</v>
+        <v>183.4653217847143</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.1854691670921</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>194.8542694035221</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>87.80122484518778</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>221.2306574774764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>134.4910295281425</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>46.90175579878783</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>124.2415152959845</v>
+        <v>119.3786445880214</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1129.234822142136</v>
+        <v>823.3126770315976</v>
       </c>
       <c r="C2" t="n">
-        <v>760.2723052017247</v>
+        <v>823.3126770315976</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>823.3126770315976</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>823.3126770315976</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>816.3671762823941</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>398.403368180581</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>71.20864821658381</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2573.131963081023</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2242.069075737452</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1889.300420467338</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>1515.834662206258</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1515.834662206258</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1253.251950079336</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C5" t="n">
-        <v>884.2894331389243</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D5" t="n">
-        <v>526.0237345321739</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E5" t="n">
-        <v>140.2354819339296</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4603,16 +4603,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4652,37 +4652,37 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>366.9469608174807</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>366.9469608174807</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>366.9469608174807</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5050,10 +5050,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>436.8967109626376</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L12" t="n">
-        <v>1050.793780719526</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M12" t="n">
-        <v>1819.161927111988</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>1918.750230200861</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2439.050851936608</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M15" t="n">
-        <v>334.288126757867</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1034.225496165639</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>744.8083261286786</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>744.8083261286786</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="17">
@@ -5500,28 +5500,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,13 +5530,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,16 +5597,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>334.288126757867</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O18" t="n">
         <v>1808.163466324677</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>484.0375086983739</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>315.101325770467</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>164.9846863581313</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383442</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,13 +5834,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>841.2209420433994</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1609.589088435861</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
         <v>1954.109744073479</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.503549752619</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.513998854602</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,10 +5977,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1288.32563221405</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.7372104782</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,28 +6165,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,28 +6211,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,19 +6241,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.3450129705744</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1302.093776210911</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>1012.965137424469</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383442</v>
+        <v>1012.965137424469</v>
       </c>
       <c r="W28" t="n">
-        <v>675.0071030383442</v>
+        <v>1012.965137424469</v>
       </c>
       <c r="X28" t="n">
-        <v>675.0071030383442</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.0071030383442</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,31 +6530,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>334.2881267578666</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O30" t="n">
         <v>1808.163466324677</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.1301850426789</v>
+        <v>333.8182909469091</v>
       </c>
       <c r="C31" t="n">
-        <v>245.1301850426789</v>
+        <v>333.8182909469091</v>
       </c>
       <c r="D31" t="n">
-        <v>245.1301850426789</v>
+        <v>333.8182909469091</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>185.905197364516</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>185.905197364516</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V31" t="n">
-        <v>762.5369059776569</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W31" t="n">
-        <v>473.1197359406963</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="X31" t="n">
-        <v>245.1301850426789</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="Y31" t="n">
-        <v>245.1301850426789</v>
+        <v>333.8182909469091</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>531.3977182706373</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>531.3977182706373</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>531.3977182706373</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>383.4846246882441</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>383.4846246882441</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.99626047346</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262966</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765241</v>
       </c>
       <c r="V34" t="n">
-        <v>1336.117678709276</v>
+        <v>531.3977182706373</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.700508672316</v>
+        <v>531.3977182706373</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>531.3977182706373</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>531.3977182706373</v>
       </c>
     </row>
     <row r="35">
@@ -6952,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,7 +7019,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L36" t="n">
         <v>1122.004430061687</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7189,22 +7189,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,16 +7350,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,7 +7493,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L42" t="n">
         <v>1122.004430061687</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W43" t="n">
-        <v>720.4504516500522</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="X43" t="n">
-        <v>594.9539715530981</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>594.9539715530981</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,34 +7642,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,7 +7730,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L45" t="n">
         <v>1122.004430061687</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,7 +9014,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417972</v>
+        <v>158.9979480233619</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>195.7226894765959</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>369.9668156413373</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>381.5997261417969</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502356</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>192.3581855871782</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>78.33112907406442</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>79.34404369770216</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>140.3375291694989</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24180,16 +24180,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>130.6844047393606</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.64651101484523</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>26.69329165486715</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>78.69234361818981</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>30.90698584635163</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>32.00253893523507</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>171.682897553307</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>101.4681400930526</v>
+        <v>106.3310108010158</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="L2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="G2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327926</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.683632792</v>
       </c>
       <c r="N2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
@@ -26432,34 +26432,34 @@
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757998</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="M4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,13 +26493,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-237156.8575535743</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609702</v>
+        <v>352811.0216609706</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609704</v>
+        <v>352811.0216609699</v>
       </c>
       <c r="E6" t="n">
-        <v>-71469.06374311807</v>
+        <v>-70591.93160936922</v>
       </c>
       <c r="F6" t="n">
-        <v>453690.9727337781</v>
+        <v>454568.1048675273</v>
       </c>
       <c r="G6" t="n">
-        <v>453690.9727337777</v>
+        <v>454568.1048675273</v>
       </c>
       <c r="H6" t="n">
-        <v>453690.9727337781</v>
+        <v>454568.1048675273</v>
       </c>
       <c r="I6" t="n">
-        <v>453690.9727337777</v>
+        <v>454568.1048675274</v>
       </c>
       <c r="J6" t="n">
-        <v>277267.7535411848</v>
+        <v>278144.8856749345</v>
       </c>
       <c r="K6" t="n">
-        <v>453690.9727337779</v>
+        <v>454568.1048675271</v>
       </c>
       <c r="L6" t="n">
-        <v>453690.9727337784</v>
+        <v>454568.1048675275</v>
       </c>
       <c r="M6" t="n">
-        <v>318889.9574999406</v>
+        <v>319767.0896336903</v>
       </c>
       <c r="N6" t="n">
-        <v>453690.9727337781</v>
+        <v>454568.1048675276</v>
       </c>
       <c r="O6" t="n">
-        <v>453690.9727337777</v>
+        <v>454568.1048675276</v>
       </c>
       <c r="P6" t="n">
-        <v>453690.9727337777</v>
+        <v>454568.1048675274</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26813,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>134.8383065126041</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>128.4472108504615</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>59.54933966209461</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>7.478382179942173</v>
       </c>
       <c r="F5" t="n">
-        <v>335.2306406500769</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>13.60675189370104</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>155.9865295915269</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>213.739296538417</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-1.506350599811412e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>4.996062822707851e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -31132,13 +31132,13 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31372,7 +31372,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31387,7 +31387,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454957967</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>216.4869287318327</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>116.2910049759604</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,7 +32074,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32089,16 +32089,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>380.4309478731432</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,25 +32548,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>104.1923998689412</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,22 +32785,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>380.6284621420183</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32809,10 +32809,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,22 +33022,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>380.6284621420183</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33274,16 +33274,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,22 +33496,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,22 +33733,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,22 +33970,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,40 +34125,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,22 +34207,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,22 +34444,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>343.1107267700523</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>186.386518625788</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>728.4316101333634</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197789</v>
+        <v>16.86391410134359</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>336.4783653925262</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>64.3809773932626</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>704.1994919699999</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>227.3705711968929</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>704.1994919699999</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>239.4656922197785</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187978</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
